--- a/racedems.xlsx
+++ b/racedems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742FD92B-3EB1-D143-9D87-60D39772E61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC865870-EA74-A341-8A61-2EC9FB29116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - fall_membership_stati" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="28">
   <si>
     <t>School Year</t>
   </si>
@@ -99,12 +99,18 @@
   <si>
     <t>Asian</t>
   </si>
+  <si>
+    <t>2015-2016</t>
+  </si>
+  <si>
+    <t>Native Hawaiian  or Pacific Islander</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -117,8 +123,21 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +156,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -251,13 +276,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -310,6 +363,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1472,10 +1534,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD121"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5002,6 +5064,934 @@
         <v>37</v>
       </c>
     </row>
+    <row r="122" spans="1:9" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122" s="11">
+        <v>53</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="13">
+        <v>970</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" s="13">
+        <v>3</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="15">
+        <v>53</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="17">
+        <v>690</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" s="17">
+        <v>1</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="15">
+        <v>53</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="17">
+        <v>750</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" s="17">
+        <v>1</v>
+      </c>
+      <c r="H124" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="15">
+        <v>53</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="17">
+        <v>970</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" s="17">
+        <v>2</v>
+      </c>
+      <c r="H125" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="15">
+        <v>53</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="17">
+        <v>690</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" s="17">
+        <v>2</v>
+      </c>
+      <c r="H126" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="15">
+        <v>53</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="17">
+        <v>970</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G127" s="17">
+        <v>1</v>
+      </c>
+      <c r="H127" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="15">
+        <v>53</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="17">
+        <v>690</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G128" s="17">
+        <v>2</v>
+      </c>
+      <c r="H128" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="15">
+        <v>53</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="17">
+        <v>720</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G129" s="17">
+        <v>1</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="15">
+        <v>53</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="17">
+        <v>690</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G130" s="17">
+        <v>2</v>
+      </c>
+      <c r="H130" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="15">
+        <v>53</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="17">
+        <v>720</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G131" s="17">
+        <v>1</v>
+      </c>
+      <c r="H131" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" s="15">
+        <v>53</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="17">
+        <v>690</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G132" s="17">
+        <v>2</v>
+      </c>
+      <c r="H132" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="11">
+        <v>53</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="13">
+        <v>970</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133" s="13">
+        <v>0</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" s="11">
+        <v>53</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="13">
+        <v>970</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G134" s="13">
+        <v>0</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="15">
+        <v>53</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="17">
+        <v>690</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G135" s="17">
+        <v>0</v>
+      </c>
+      <c r="H135" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="19">
+        <v>53</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="19">
+        <v>690</v>
+      </c>
+      <c r="E136" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G136" s="19">
+        <v>0</v>
+      </c>
+      <c r="H136" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="15">
+        <v>53</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="17">
+        <v>750</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G137" s="17">
+        <v>0</v>
+      </c>
+      <c r="H137" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" s="15">
+        <v>53</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="17">
+        <v>750</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G138" s="17">
+        <v>0</v>
+      </c>
+      <c r="H138" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" s="15">
+        <v>53</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="17">
+        <v>750</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G139" s="17">
+        <v>0</v>
+      </c>
+      <c r="H139" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" s="15">
+        <v>53</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="17">
+        <v>750</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G140" s="17">
+        <v>0</v>
+      </c>
+      <c r="H140" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="15">
+        <v>53</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="17">
+        <v>720</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141" s="17">
+        <v>0</v>
+      </c>
+      <c r="H141" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="15">
+        <v>53</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="17">
+        <v>720</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G142" s="17">
+        <v>0</v>
+      </c>
+      <c r="H142" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" s="15">
+        <v>53</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="17">
+        <v>720</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G143" s="17">
+        <v>0</v>
+      </c>
+      <c r="H143" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="15">
+        <v>53</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="17">
+        <v>10</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G144" s="17">
+        <v>0</v>
+      </c>
+      <c r="H144" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="15">
+        <v>53</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="17">
+        <v>10</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G145" s="17">
+        <v>0</v>
+      </c>
+      <c r="H145" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" s="15">
+        <v>53</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="17">
+        <v>10</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G146" s="17">
+        <v>0</v>
+      </c>
+      <c r="H146" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" s="15">
+        <v>53</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="17">
+        <v>10</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G147" s="17">
+        <v>0</v>
+      </c>
+      <c r="H147" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" s="15">
+        <v>53</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="17">
+        <v>10</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G148" s="17">
+        <v>0</v>
+      </c>
+      <c r="H148" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" s="15">
+        <v>53</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="17">
+        <v>40</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G149" s="17">
+        <v>0</v>
+      </c>
+      <c r="H149" s="17">
+        <v>3</v>
+      </c>
+      <c r="I149" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="15">
+        <v>53</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="17">
+        <v>40</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G150" s="17">
+        <v>0</v>
+      </c>
+      <c r="H150" s="17">
+        <v>3</v>
+      </c>
+      <c r="I150" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="15">
+        <v>53</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="17">
+        <v>40</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G151" s="17">
+        <v>0</v>
+      </c>
+      <c r="H151" s="17">
+        <v>3</v>
+      </c>
+      <c r="I151" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="15">
+        <v>53</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="17">
+        <v>40</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G152" s="17">
+        <v>0</v>
+      </c>
+      <c r="H152" s="17">
+        <v>3</v>
+      </c>
+      <c r="I152" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" s="15">
+        <v>53</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="17">
+        <v>40</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G153" s="17">
+        <v>0</v>
+      </c>
+      <c r="H153" s="17">
+        <v>3</v>
+      </c>
+      <c r="I153" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
